--- a/Industrials/TransDigm.xlsx
+++ b/Industrials/TransDigm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD213E71-3F40-554D-B041-577CCF911472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691066D7-7CF4-AA49-AA24-4DEED1AA802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1738,7 +1738,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1777,6 +1780,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1794,7 +1798,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1806,6 +1810,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1933,11 +1938,11 @@
     <v>Powered by Refinitiv</v>
     <v>980</v>
     <v>578.16279999999995</v>
-    <v>1.4053</v>
-    <v>-3.36</v>
-    <v>-3.5139999999999998E-3</v>
-    <v>4.0199999999999996</v>
-    <v>4.2189999999999997E-3</v>
+    <v>1.4444999999999999</v>
+    <v>7.4</v>
+    <v>7.685E-3</v>
+    <v>3.97</v>
+    <v>4.0920000000000002E-3</v>
     <v>USD</v>
     <v>TransDigm Group Incorporated is a designer, producer and supplier of engineered aircraft components for use on all commercial and military aircraft in service. The Company's segments include Power &amp; Control, Airframe and Non-aviation. The Power &amp; Control segment develops, produces and markets systems and components that predominately provide power to or control power of the aircraft utilizing electronic, fluid, power and mechanical motion control technologies. Its product offerings include mechanical/electro-mechanical actuators and controls. The Airframe segment develops, produces and markets systems and components that are used in non-power airframe applications utilizing airframe and cabin structure technologies. Its product offerings include engineered latching and locking devices, and engineered rods. The Non-aviation segment develops, produces and markets products for non-aviation markets. Its products include belts and safety restraints for ground transportation applications.</v>
     <v>15500</v>
@@ -1945,25 +1950,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1301 East 9th Street, Suite 3000, CLEVELAND, OH, 44114 US</v>
-    <v>959.63499999999999</v>
+    <v>974.75</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45260.026849096874</v>
+    <v>45261.895628553124</v>
     <v>0</v>
-    <v>950.62</v>
-    <v>52704380762</v>
+    <v>956.45</v>
+    <v>53669611807</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
-    <v>958.49</v>
-    <v>43.299700000000001</v>
-    <v>956.18</v>
-    <v>952.82</v>
-    <v>956.84</v>
+    <v>958.92</v>
+    <v>43.756399999999999</v>
+    <v>962.87</v>
+    <v>970.27</v>
+    <v>974.24</v>
     <v>55314100</v>
     <v>TDG</v>
     <v>TRANSDIGM GROUP INCORPORATED (XNYS:TDG)</v>
-    <v>124583</v>
-    <v>267317</v>
+    <v>162098</v>
+    <v>271950</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2575,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
@@ -14078,7 +14083,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14131,7 +14136,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>52704380762</v>
+        <v>53669611807</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>201</v>
@@ -14151,22 +14156,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="101">
-        <f>AVERAGE(Financials!K129:O129)</f>
-        <v>9.0528228258752279E-3</v>
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>-1.2373045474030805E-4</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="104">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>64378526830.248146</v>
+        <v>63991894569.866974</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="107">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.0548576500510674E-2</v>
+        <v>2.0179016831620662E-2</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>206</v>
@@ -14204,21 +14209,21 @@
       </c>
       <c r="G4" s="102">
         <f>A5*(1+(5*G3))</f>
-        <v>57817843.735363722</v>
+        <v>55279879.806267247</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="102">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>55120216445.338074</v>
+        <v>54779394353.589417</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="105" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.5139999999999998E-3</v>
+        <v>7.685E-3</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>213</v>
@@ -14263,14 +14268,14 @@
       </c>
       <c r="I5" s="102">
         <f>I4+G5-G6</f>
-        <v>38426216445.338074</v>
+        <v>38085394353.589417</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>952.82</v>
+        <v>970.27</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>220</v>
@@ -14290,7 +14295,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>8.003702469552012</v>
+        <v>8.1502827345482149</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>222</v>
@@ -14318,14 +14323,14 @@
       </c>
       <c r="I6" s="105">
         <f>N25</f>
-        <v>8.2778970460260559E-2</v>
+        <v>8.312806489013648E-2</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>664.60825867560072</v>
+        <v>688.95580972792857</v>
       </c>
       <c r="L6" s="50" t="s">
         <v>226</v>
@@ -14345,14 +14350,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <f>O20/F12</f>
-        <v>40.541831355384616</v>
+        <v>41.284316774615384</v>
       </c>
       <c r="B7" s="96" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="99">
         <f>F15/A3</f>
-        <v>4.0300255297400431E-2</v>
+        <v>3.9575467913538581E-2</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>229</v>
@@ -14379,7 +14384,7 @@
       </c>
       <c r="K7" s="110">
         <f>K6/K5-1</f>
-        <v>-0.30248288378119614</v>
+        <v>-0.28993392588874378</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>232</v>
@@ -14706,7 +14711,7 @@
       </c>
       <c r="O14" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -14858,7 +14863,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -14941,24 +14946,24 @@
       </c>
       <c r="O20" s="90">
         <f>A3</f>
-        <v>52704380762</v>
+        <v>53669611807</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="str" cm="1">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="124" cm="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2003</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -14971,7 +14976,7 @@
       </c>
       <c r="O21" s="90">
         <f>O19+O20</f>
-        <v>72469380762</v>
+        <v>73434611807</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -14999,7 +15004,7 @@
       </c>
       <c r="O22" s="92">
         <f>(O19/O21)</f>
-        <v>0.27273587537488608</v>
+        <v>0.2691510108604665</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -15024,7 +15029,7 @@
       </c>
       <c r="O23" s="93">
         <f>O20/O21</f>
-        <v>0.72726412462511392</v>
+        <v>0.73084898913953344</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -15068,7 +15073,7 @@
       <c r="M25" s="57"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.2778970460260559E-2</v>
+        <v>8.312806489013648E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="40"/>

--- a/Industrials/TransDigm.xlsx
+++ b/Industrials/TransDigm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691066D7-7CF4-AA49-AA24-4DEED1AA802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE5FA0-EF88-E54F-AB6F-EEC1A0EA034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1775,10 +1775,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1798,7 +1800,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1811,6 +1813,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1936,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>980</v>
+    <v>986.14499999999998</v>
     <v>578.16279999999995</v>
-    <v>1.4444999999999999</v>
-    <v>7.4</v>
-    <v>7.685E-3</v>
-    <v>3.97</v>
-    <v>4.0920000000000002E-3</v>
+    <v>1.4440999999999999</v>
+    <v>11.09</v>
+    <v>1.1397999999999998E-2</v>
+    <v>2.08</v>
+    <v>2.114E-3</v>
     <v>USD</v>
     <v>TransDigm Group Incorporated is a designer, producer and supplier of engineered aircraft components for use on all commercial and military aircraft in service. The Company's segments include Power &amp; Control, Airframe and Non-aviation. The Power &amp; Control segment develops, produces and markets systems and components that predominately provide power to or control power of the aircraft utilizing electronic, fluid, power and mechanical motion control technologies. Its product offerings include mechanical/electro-mechanical actuators and controls. The Airframe segment develops, produces and markets systems and components that are used in non-power airframe applications utilizing airframe and cabin structure technologies. Its product offerings include engineered latching and locking devices, and engineered rods. The Non-aviation segment develops, produces and markets products for non-aviation markets. Its products include belts and safety restraints for ground transportation applications.</v>
     <v>15500</v>
@@ -1950,25 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1301 East 9th Street, Suite 3000, CLEVELAND, OH, 44114 US</v>
-    <v>974.75</v>
+    <v>986.14499999999998</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45261.895628553124</v>
+    <v>45269.031461353909</v>
     <v>0</v>
-    <v>956.45</v>
-    <v>53669611807</v>
+    <v>971.94</v>
+    <v>54424650000</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
     <v>TRANSDIGM GROUP INCORPORATED</v>
-    <v>958.92</v>
-    <v>43.756399999999999</v>
-    <v>962.87</v>
-    <v>970.27</v>
-    <v>974.24</v>
+    <v>973.7</v>
+    <v>44.2149</v>
+    <v>972.96</v>
+    <v>984.05</v>
+    <v>986</v>
     <v>55314100</v>
     <v>TDG</v>
     <v>TRANSDIGM GROUP INCORPORATED (XNYS:TDG)</v>
-    <v>162098</v>
-    <v>271950</v>
+    <v>144938</v>
+    <v>248435</v>
     <v>2003</v>
   </rv>
   <rv s="2">
@@ -2133,9 +2137,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14083,7 +14087,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14136,7 +14140,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>53669611807</v>
+        <v>54424650000</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>201</v>
@@ -14164,14 +14168,14 @@
       </c>
       <c r="I3" s="104">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>63991894569.866974</v>
+        <v>63434604644.357452</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="107">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.0179016831620662E-2</v>
+        <v>1.9899071468534937E-2</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>206</v>
@@ -14216,14 +14220,14 @@
       </c>
       <c r="I4" s="102">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>54779394353.589417</v>
+        <v>54288152816.96286</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="105" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.685E-3</v>
+        <v>1.1397999999999998E-2</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>213</v>
@@ -14268,14 +14272,14 @@
       </c>
       <c r="I5" s="102">
         <f>I4+G5-G6</f>
-        <v>38085394353.589417</v>
+        <v>37594152816.96286</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>970.27</v>
+        <v>984.05</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>220</v>
@@ -14295,7 +14299,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
         <f>O20/F10</f>
-        <v>8.1502827345482149</v>
+        <v>8.2649430523917999</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>222</v>
@@ -14323,14 +14327,14 @@
       </c>
       <c r="I6" s="105">
         <f>N25</f>
-        <v>8.312806489013648E-2</v>
+        <v>8.3638735448174212E-2</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>688.95580972792857</v>
+        <v>680.06936608246201</v>
       </c>
       <c r="L6" s="50" t="s">
         <v>226</v>
@@ -14350,14 +14354,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <f>O20/F12</f>
-        <v>41.284316774615384</v>
+        <v>41.865115384615386</v>
       </c>
       <c r="B7" s="96" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="99">
         <f>F15/A3</f>
-        <v>3.9575467913538581E-2</v>
+        <v>3.9026433794245807E-2</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>229</v>
@@ -14384,7 +14388,7 @@
       </c>
       <c r="K7" s="110">
         <f>K6/K5-1</f>
-        <v>-0.28993392588874378</v>
+        <v>-0.30890771192270505</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>232</v>
@@ -14711,7 +14715,7 @@
       </c>
       <c r="O14" s="74">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -14863,7 +14867,7 @@
       </c>
       <c r="O17" s="84">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -14946,7 +14950,7 @@
       </c>
       <c r="O20" s="90">
         <f>A3</f>
-        <v>53669611807</v>
+        <v>54424650000</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -14976,7 +14980,7 @@
       </c>
       <c r="O21" s="90">
         <f>O19+O20</f>
-        <v>73434611807</v>
+        <v>74189650000</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -15004,7 +15008,7 @@
       </c>
       <c r="O22" s="92">
         <f>(O19/O21)</f>
-        <v>0.2691510108604665</v>
+        <v>0.26641182429085458</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -15029,7 +15033,7 @@
       </c>
       <c r="O23" s="93">
         <f>O20/O21</f>
-        <v>0.73084898913953344</v>
+        <v>0.73358817570914536</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -15073,7 +15077,7 @@
       <c r="M25" s="57"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.312806489013648E-2</v>
+        <v>8.3638735448174212E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="40"/>
